--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Ptprm</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Ptprm</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,14 +525,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H2">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I2">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J2">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="N2">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="O2">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="P2">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="Q2">
-        <v>40.01655289499801</v>
+        <v>98.68061895052669</v>
       </c>
       <c r="R2">
-        <v>360.148976054982</v>
+        <v>888.1255705547402</v>
       </c>
       <c r="S2">
-        <v>0.3370290866205196</v>
+        <v>0.8004992570723398</v>
       </c>
       <c r="T2">
-        <v>0.3370290866205196</v>
+        <v>0.8004992570723399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H3">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I3">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J3">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N3">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O3">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="P3">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="Q3">
-        <v>8.238996902848001</v>
+        <v>20.83098212327467</v>
       </c>
       <c r="R3">
-        <v>74.15097212563201</v>
+        <v>187.478839109472</v>
       </c>
       <c r="S3">
-        <v>0.06939082454509078</v>
+        <v>0.1689813652479078</v>
       </c>
       <c r="T3">
-        <v>0.06939082454509078</v>
+        <v>0.1689813652479078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H4">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I4">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J4">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="N4">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="O4">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="P4">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="Q4">
-        <v>0.06149124149600001</v>
+        <v>0.287017762907</v>
       </c>
       <c r="R4">
-        <v>0.553421173464</v>
+        <v>2.583159866163</v>
       </c>
       <c r="S4">
-        <v>0.0005178941077443274</v>
+        <v>0.002328294131280296</v>
       </c>
       <c r="T4">
-        <v>0.0005178941077443274</v>
+        <v>0.002328294131280296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H5">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I5">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J5">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="N5">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="O5">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="P5">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="Q5">
-        <v>0.385404514928</v>
+        <v>1.096389097401667</v>
       </c>
       <c r="R5">
-        <v>3.468640634352</v>
+        <v>9.867501876615</v>
       </c>
       <c r="S5">
-        <v>0.003245970036110846</v>
+        <v>0.008893931425098374</v>
       </c>
       <c r="T5">
-        <v>0.003245970036110846</v>
+        <v>0.008893931425098376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H6">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I6">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J6">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="N6">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="O6">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="P6">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="Q6">
-        <v>0.027227981668</v>
+        <v>0.3855102538696668</v>
       </c>
       <c r="R6">
-        <v>0.245051835012</v>
+        <v>3.469592284827001</v>
       </c>
       <c r="S6">
-        <v>0.0002293206467874786</v>
+        <v>0.003127267290157084</v>
       </c>
       <c r="T6">
-        <v>0.0002293206467874786</v>
+        <v>0.003127267290157084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H7">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I7">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J7">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="N7">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="O7">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="P7">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="Q7">
-        <v>1.032684825975778</v>
+        <v>1.621879854155556</v>
       </c>
       <c r="R7">
-        <v>9.294163433782002</v>
+        <v>14.5969186874</v>
       </c>
       <c r="S7">
-        <v>0.008697521362690676</v>
+        <v>0.01315672349970792</v>
       </c>
       <c r="T7">
-        <v>0.008697521362690678</v>
+        <v>0.01315672349970792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H8">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I8">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J8">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N8">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O8">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="P8">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="Q8">
-        <v>0.2126191904924444</v>
+        <v>0.3423706763022222</v>
       </c>
       <c r="R8">
-        <v>1.913572714432</v>
+        <v>3.08133608672</v>
       </c>
       <c r="S8">
-        <v>0.00179073024499869</v>
+        <v>0.002777318129314597</v>
       </c>
       <c r="T8">
-        <v>0.00179073024499869</v>
+        <v>0.002777318129314598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H9">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I9">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J9">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="N9">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="O9">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="P9">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="Q9">
-        <v>0.001586870118222222</v>
+        <v>0.004717322736666666</v>
       </c>
       <c r="R9">
-        <v>0.014281831064</v>
+        <v>0.04245590463</v>
       </c>
       <c r="S9">
-        <v>1.336500392558008E-05</v>
+        <v>3.826702128779026E-05</v>
       </c>
       <c r="T9">
-        <v>1.336500392558009E-05</v>
+        <v>3.826702128779027E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H10">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I10">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J10">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="N10">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="O10">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="P10">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="Q10">
-        <v>0.009945919016888889</v>
+        <v>0.01801986457222222</v>
       </c>
       <c r="R10">
-        <v>0.089513271152</v>
+        <v>0.16217878115</v>
       </c>
       <c r="S10">
-        <v>8.376693541443745E-05</v>
+        <v>0.0001461775205305507</v>
       </c>
       <c r="T10">
-        <v>8.376693541443747E-05</v>
+        <v>0.0001461775205305507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,356 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H11">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I11">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J11">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="N11">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="O11">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="P11">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="Q11">
-        <v>0.0007026573124444444</v>
+        <v>0.006336110585555556</v>
       </c>
       <c r="R11">
-        <v>0.006323915812</v>
+        <v>0.05702499527000001</v>
       </c>
       <c r="S11">
-        <v>5.917949825457895E-06</v>
+        <v>5.139866237572216E-05</v>
       </c>
       <c r="T11">
-        <v>5.917949825457897E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H12">
-        <v>1.776571</v>
-      </c>
-      <c r="I12">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J12">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>95.33061966666668</v>
-      </c>
-      <c r="N12">
-        <v>285.991859</v>
-      </c>
-      <c r="O12">
-        <v>0.8211947667879593</v>
-      </c>
-      <c r="P12">
-        <v>0.8211947667879594</v>
-      </c>
-      <c r="Q12">
-        <v>56.45387143727655</v>
-      </c>
-      <c r="R12">
-        <v>508.084842935489</v>
-      </c>
-      <c r="S12">
-        <v>0.4754681588047491</v>
-      </c>
-      <c r="T12">
-        <v>0.4754681588047492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.776571</v>
-      </c>
-      <c r="I13">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J13">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>19.62759466666667</v>
-      </c>
-      <c r="N13">
-        <v>58.882784</v>
-      </c>
-      <c r="O13">
-        <v>0.1690755612547201</v>
-      </c>
-      <c r="P13">
-        <v>0.1690755612547201</v>
-      </c>
-      <c r="Q13">
-        <v>11.62327182818489</v>
-      </c>
-      <c r="R13">
-        <v>104.609446453664</v>
-      </c>
-      <c r="S13">
-        <v>0.09789400646463066</v>
-      </c>
-      <c r="T13">
-        <v>0.09789400646463067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H14">
-        <v>1.776571</v>
-      </c>
-      <c r="I14">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J14">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.1464893333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.439468</v>
-      </c>
-      <c r="O14">
-        <v>0.001261884946769659</v>
-      </c>
-      <c r="P14">
-        <v>0.001261884946769659</v>
-      </c>
-      <c r="Q14">
-        <v>0.08674956713644444</v>
-      </c>
-      <c r="R14">
-        <v>0.7807461042279999</v>
-      </c>
-      <c r="S14">
-        <v>0.0007306258350997518</v>
-      </c>
-      <c r="T14">
-        <v>0.000730625835099752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H15">
-        <v>1.776571</v>
-      </c>
-      <c r="I15">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J15">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.9181413333333334</v>
-      </c>
-      <c r="N15">
-        <v>2.754424</v>
-      </c>
-      <c r="O15">
-        <v>0.007909031334752637</v>
-      </c>
-      <c r="P15">
-        <v>0.007909031334752639</v>
-      </c>
-      <c r="Q15">
-        <v>0.5437144222337777</v>
-      </c>
-      <c r="R15">
-        <v>4.893429800104</v>
-      </c>
-      <c r="S15">
-        <v>0.004579294363227355</v>
-      </c>
-      <c r="T15">
-        <v>0.004579294363227356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H16">
-        <v>1.776571</v>
-      </c>
-      <c r="I16">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J16">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.06486466666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.194594</v>
-      </c>
-      <c r="O16">
-        <v>0.0005587556757982266</v>
-      </c>
-      <c r="P16">
-        <v>0.0005587556757982267</v>
-      </c>
-      <c r="Q16">
-        <v>0.03841222857488889</v>
-      </c>
-      <c r="R16">
-        <v>0.3457100571739999</v>
-      </c>
-      <c r="S16">
-        <v>0.0003235170791852902</v>
-      </c>
-      <c r="T16">
-        <v>0.0003235170791852902</v>
+        <v>5.139866237572217E-05</v>
       </c>
     </row>
   </sheetData>
